--- a/Version2.1/Project Outputs for Vreg_Learning_Platform/Generate Files/BOM/BOM_JLC.xlsx
+++ b/Version2.1/Project Outputs for Vreg_Learning_Platform/Generate Files/BOM/BOM_JLC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarkhan\Desktop\Voltage Regulator Learning Platform\Version2.1\Project Outputs for Vreg_Learning_Platform\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EAAA2E-5FE9-45B7-93E7-7F9D6CA4CEFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B02D80-B0B9-4E13-A917-003A9DB038EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14250" xr2:uid="{3E24F2B4-F840-4B41-B103-DBB7B3842172}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{3E24F2B4-F840-4B41-B103-DBB7B3842172}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="241">
   <si>
     <t>Quantity</t>
   </si>
@@ -496,16 +496,278 @@
   </si>
   <si>
     <t>C3151730</t>
+  </si>
+  <si>
+    <t>C108437</t>
+  </si>
+  <si>
+    <t>C438157</t>
+  </si>
+  <si>
+    <t>C1975529</t>
+  </si>
+  <si>
+    <t>C458168</t>
+  </si>
+  <si>
+    <t>C533054</t>
+  </si>
+  <si>
+    <t>C13564</t>
+  </si>
+  <si>
+    <t>C536840</t>
+  </si>
+  <si>
+    <t>C538459</t>
+  </si>
+  <si>
+    <t>C534384</t>
+  </si>
+  <si>
+    <t>C25647</t>
+  </si>
+  <si>
+    <t>C168584</t>
+  </si>
+  <si>
+    <t>C229357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2480133 </t>
+  </si>
+  <si>
+    <t>NA 128 min 9.01</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>C79274</t>
+  </si>
+  <si>
+    <t>C545790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 4 Left in stock!  </t>
+  </si>
+  <si>
+    <t>0.39$</t>
+  </si>
+  <si>
+    <t>C42184</t>
+  </si>
+  <si>
+    <t>0.19$</t>
+  </si>
+  <si>
+    <t>Price per 1</t>
+  </si>
+  <si>
+    <t>C407318</t>
+  </si>
+  <si>
+    <t>1.33K</t>
+  </si>
+  <si>
+    <t>C246653</t>
+  </si>
+  <si>
+    <t>C136458</t>
+  </si>
+  <si>
+    <t>C229508</t>
+  </si>
+  <si>
+    <t>2.21K</t>
+  </si>
+  <si>
+    <t>0.01$</t>
+  </si>
+  <si>
+    <t>C17927</t>
+  </si>
+  <si>
+    <t>C914835</t>
+  </si>
+  <si>
+    <t>max pow 1W</t>
+  </si>
+  <si>
+    <t>0.13$</t>
+  </si>
+  <si>
+    <t>S110, S560, S810, S812</t>
+  </si>
+  <si>
+    <t>1301.9314</t>
+  </si>
+  <si>
+    <t>Schurter</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>S122, S200, S800, S801, S802, S814</t>
+  </si>
+  <si>
+    <t>CL-SB-12A-01T</t>
+  </si>
+  <si>
+    <t>NIDEC COPAL ELECTRONICS, Inc.</t>
+  </si>
+  <si>
+    <t>C2921643</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>0.8$</t>
+  </si>
+  <si>
+    <t>C294565</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>C322927</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.02$</t>
+  </si>
+  <si>
+    <t>0.03$</t>
+  </si>
+  <si>
+    <t>0.05$</t>
+  </si>
+  <si>
+    <t>Ask Ratimir</t>
+  </si>
+  <si>
+    <t>0.42$</t>
+  </si>
+  <si>
+    <t>0.20$</t>
+  </si>
+  <si>
+    <t>0.46$</t>
+  </si>
+  <si>
+    <t>0.36$</t>
+  </si>
+  <si>
+    <t>6.24$</t>
+  </si>
+  <si>
+    <t>NA + TOO EXPENSIVE</t>
+  </si>
+  <si>
+    <t>1.36$</t>
+  </si>
+  <si>
+    <t>0.88$</t>
+  </si>
+  <si>
+    <t>1.46$</t>
+  </si>
+  <si>
+    <t>0.004$</t>
+  </si>
+  <si>
+    <t>Poti</t>
+  </si>
+  <si>
+    <t>0.009$</t>
+  </si>
+  <si>
+    <t>0.003$</t>
+  </si>
+  <si>
+    <t>0.07$</t>
+  </si>
+  <si>
+    <t>Total Price per Board</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>1.26$</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -580,6 +842,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,23 +1160,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD009797-C0DE-4652-A156-79D1937E09F4}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -932,8 +1202,17 @@
       <c r="G1" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -953,7 +1232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -973,7 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -995,8 +1274,14 @@
       <c r="G4" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -1018,8 +1303,14 @@
       <c r="G5" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1041,8 +1332,14 @@
       <c r="G6" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1064,8 +1361,14 @@
       <c r="G7" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1085,7 +1388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1105,7 +1408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1125,7 +1428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1144,8 +1447,17 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1167,8 +1479,17 @@
       <c r="G12" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1190,8 +1511,14 @@
       <c r="G13" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1210,8 +1537,17 @@
       <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1230,8 +1566,17 @@
       <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1250,8 +1595,17 @@
       <c r="F16" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1271,7 +1625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1291,7 +1645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1311,7 +1665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1330,8 +1684,17 @@
       <c r="F20" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1351,7 +1714,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1371,7 +1734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1391,7 +1754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1410,8 +1773,17 @@
       <c r="F24" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1431,7 +1803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1450,8 +1822,17 @@
       <c r="F26" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1470,8 +1851,17 @@
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1490,8 +1880,17 @@
       <c r="F28" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1510,8 +1909,17 @@
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -1530,8 +1938,17 @@
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1551,7 +1968,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -1570,8 +1987,17 @@
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>14</v>
       </c>
@@ -1590,8 +2016,17 @@
       <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1610,8 +2045,17 @@
       <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1630,8 +2074,17 @@
       <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1642,8 +2095,20 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>12</v>
       </c>
@@ -1662,8 +2127,20 @@
       <c r="F37" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -1682,8 +2159,17 @@
       <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -1702,8 +2188,17 @@
       <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1722,8 +2217,12 @@
       <c r="F40" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1742,8 +2241,20 @@
       <c r="F41" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -1762,8 +2273,17 @@
       <c r="F42" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1782,8 +2302,17 @@
       <c r="F43" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1801,6 +2330,84 @@
       </c>
       <c r="F44" s="2" t="s">
         <v>148</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J47" s="10">
+        <v>6034</v>
       </c>
     </row>
   </sheetData>
